--- a/Tugas5/Tugas 5 Normalisasi.xlsx
+++ b/Tugas5/Tugas 5 Normalisasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KAMPUS MERDEKA\Tugas\Tugas MySQL\Tugas5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D5BAF3-39DA-4C6B-B480-FE5CB67F75D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1543CD39-C68F-4564-A2F8-81FD983A23ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,7 +178,7 @@
     <t>Tabel Personal</t>
   </si>
   <si>
-    <t>Tabel Lokasi</t>
+    <t>Tabel Tugas</t>
   </si>
 </sst>
 </file>
@@ -259,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -334,16 +334,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -365,17 +371,24 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,634 +608,634 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>39448</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>39452</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>39819</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>40653</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>40654</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>42003</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>40179</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>40543</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>40544</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>40908</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>40544</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>41274</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>40544</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>41274</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>39814</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>40543</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>40179</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>40908</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.5"/>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="33" customHeight="1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>39448</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>39452</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.5">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>1</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>39819</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>40653</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12.5">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>1</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>40654</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>42003</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.5">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>40179</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>40543</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12.5">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>2</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>40544</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>40908</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="12.5">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>40544</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>41274</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.5">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>4</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>40544</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>41274</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.5">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>5</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>39814</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>40543</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.5">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>5</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>40179</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>40908</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="13">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1233,372 +1246,190 @@
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="J33" s="13" t="s">
+      <c r="E33" s="11"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:13" ht="28.5" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="12.5">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12.5">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.5">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.5">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="12.5">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.5">
+      <c r="A40" s="4">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12.5">
+      <c r="A41" s="4">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="12.5">
+      <c r="A42" s="4">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="12.5">
+      <c r="A43" s="4">
+        <v>5</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.5">
+      <c r="A45" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" ht="28.5" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.5">
-      <c r="A35" s="5">
-        <v>1</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="6">
-        <v>39448</v>
-      </c>
-      <c r="H35" s="6">
-        <v>39452</v>
-      </c>
-      <c r="J35" s="5">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.5">
-      <c r="A36" s="5">
-        <v>1</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="6">
-        <v>39819</v>
-      </c>
-      <c r="H36" s="6">
-        <v>40653</v>
-      </c>
-      <c r="J36" s="5">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.5">
-      <c r="A37" s="5">
-        <v>1</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="6">
-        <v>40654</v>
-      </c>
-      <c r="H37" s="7">
-        <v>42003</v>
-      </c>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="12.5">
-      <c r="A38" s="5">
-        <v>2</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="6">
-        <v>40179</v>
-      </c>
-      <c r="H38" s="7">
-        <v>40543</v>
-      </c>
-      <c r="J38" s="5">
-        <v>2</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="12.5">
-      <c r="A39" s="5">
-        <v>2</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="6">
-        <v>40544</v>
-      </c>
-      <c r="H39" s="7">
-        <v>40908</v>
-      </c>
-      <c r="J39" s="5">
-        <v>2</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="12.5">
-      <c r="A40" s="5">
-        <v>3</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="6">
-        <v>40544</v>
-      </c>
-      <c r="H40" s="7">
-        <v>41274</v>
-      </c>
-      <c r="J40" s="5">
-        <v>3</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="12.5">
-      <c r="A41" s="5">
-        <v>4</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="6">
-        <v>40544</v>
-      </c>
-      <c r="H41" s="7">
-        <v>41274</v>
-      </c>
-      <c r="J41" s="5">
-        <v>4</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="12.5">
-      <c r="A42" s="5">
-        <v>5</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="6">
-        <v>39814</v>
-      </c>
-      <c r="H42" s="7">
-        <v>40543</v>
-      </c>
-      <c r="J42" s="5">
-        <v>5</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="12.5">
-      <c r="A43" s="5">
-        <v>5</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="6">
-        <v>40179</v>
-      </c>
-      <c r="H43" s="7">
-        <v>40908</v>
-      </c>
-      <c r="J43" s="5">
-        <v>5</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.5">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1607,20 +1438,234 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A46" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="5">
+        <v>39448</v>
+      </c>
+      <c r="C48" s="5">
+        <v>39452</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="5">
+        <v>39819</v>
+      </c>
+      <c r="C49" s="5">
+        <v>40653</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="5">
+        <v>40654</v>
+      </c>
+      <c r="C50" s="6">
+        <v>42003</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="5">
+        <v>40179</v>
+      </c>
+      <c r="C51" s="6">
+        <v>40543</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="5">
+        <v>40544</v>
+      </c>
+      <c r="C52" s="6">
+        <v>40908</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="5">
+        <v>40544</v>
+      </c>
+      <c r="C53" s="6">
+        <v>41274</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="5">
+        <v>40544</v>
+      </c>
+      <c r="C54" s="6">
+        <v>41274</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="5">
+        <v>39814</v>
+      </c>
+      <c r="C55" s="6">
+        <v>40543</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="5">
+        <v>40179</v>
+      </c>
+      <c r="C56" s="6">
+        <v>40908</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="J33:L33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
